--- a/test1.xlsx
+++ b/test1.xlsx
@@ -439,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -463,6 +463,14 @@
         <v>300</v>
       </c>
     </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>69</v>
+      </c>
+      <c r="B3">
+        <v>2300</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
